--- a/biology/Zoologie/Insectarium/Insectarium.xlsx
+++ b/biology/Zoologie/Insectarium/Insectarium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un insectarium est une collection d'insectes vivants ou morts. Au terme insectarium, peuvent être rattachés deux types de conception différente :
 Un insectarium est un ensemble de vitrines où des insectes morts sont présentés épinglés et étiquetés.
@@ -513,22 +525,94 @@
           <t>Insectarium public</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Un insectarium public est un établissement (ou espace) de présentation et d'élevage d'insectes vivants, ouvert au public et qui a pour buts l’éveil et la sensibilisation au monde des insectes, et la recherche scientifique. Les insectes ont un rôle essentiel pour l'équilibre écologique de la planète.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un insectarium public est un établissement (ou espace) de présentation et d'élevage d'insectes vivants, ouvert au public et qui a pour buts l’éveil et la sensibilisation au monde des insectes, et la recherche scientifique. Les insectes ont un rôle essentiel pour l'équilibre écologique de la planète.
 Un insectarium public peut être indépendant, être une partie de parc zoologique, de jardin botanique ou de musée d'histoire naturelle, ou être inclus dans un vivarium. L'espace réservé aux fourmis s'appelle un formicarium. Celui réservé aux papillons est qualifié de papillonneraie.
 Un insectarium n'est pas forcément accessible au grand public s'il est implanté dans l'enceinte d'une université ou d'un laboratoire de recherche.
-Histoire
-Le Zoo de Londres fut l’un des premiers insectariums publics au monde (1881).
-Exemples d'insectariums
-Algérie :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Insectarium</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Insectarium</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Insectarium public</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Zoo de Londres fut l’un des premiers insectariums publics au monde (1881).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Insectarium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Insectarium</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Insectarium public</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Exemples d'insectariums</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Algérie :
 Insectarium d'Alger
 Angleterre :
 Zoo de Londres
 Australie :
 Insectarium of Victoria
 Belgique:
-Insectarium Jean Leclercq, Gembloux[1]
+Insectarium Jean Leclercq, Gembloux
 Canada :
 Insectarium de Montréal
 Insectarium de Québec
@@ -542,7 +626,7 @@
 Citadelle de Besançon
 Insectarium de La Réunion
 Insectarium de l'université de Strasbourg
-Insectarium de Lizio (Bretagne)[2]
+Insectarium de Lizio (Bretagne)
 Parc du Peuple de l'herbe, Carrières-sous-Poissy
 Japon :
 Zoo de Tama, près de Tōkyō</t>
